--- a/data/trans_orig/P2A_psíq_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P2A_psíq_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1B7EF1A-DFD5-400B-AC5E-944BEF728F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EFEAFC2-9931-4CFB-BBAF-E68C0A3D71DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3A39F0E1-7FCC-4FA9-9ACF-7C72BE842072}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{535B799E-1EB1-4C18-BCC0-348E08F0905B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="263">
-  <si>
-    <t>Hogares con personas con limitación, discapacidad psíquica en 2007 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="255">
+  <si>
+    <t>Hogares según si tienen personas con limitación, discapacidad psíquica en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -77,685 +77,637 @@
     <t>1,96%</t>
   </si>
   <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
   </si>
   <si>
     <t>1,53%</t>
   </si>
   <si>
-    <t>0,92%</t>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con limitación, discapacidad psíquica en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,36%</t>
   </si>
   <si>
     <t>2,35%</t>
   </si>
   <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
   </si>
   <si>
     <t>97,65%</t>
   </si>
   <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con limitación, discapacidad psíquica en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
   </si>
   <si>
     <t>1,07%</t>
   </si>
   <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
   </si>
   <si>
     <t>1,19%</t>
   </si>
   <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
   </si>
   <si>
     <t>98,81%</t>
   </si>
   <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con limitación, discapacidad psíquica en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
   </si>
   <si>
     <t>1,31%</t>
   </si>
   <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
   </si>
   <si>
     <t>98,69%</t>
   </si>
   <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares con personas con limitación, discapacidad psíquica en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>Hogares con personas con limitación, discapacidad psíquica en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>Hogares con personas con limitación, discapacidad psíquica en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
     <t>92,46%</t>
   </si>
   <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
   </si>
   <si>
     <t>95,24%</t>
   </si>
   <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
   </si>
   <si>
     <t>2,36%</t>
@@ -764,28 +716,40 @@
     <t>1,3%</t>
   </si>
   <si>
+    <t>4,1%</t>
+  </si>
+  <si>
     <t>2,14%</t>
   </si>
   <si>
+    <t>3,32%</t>
+  </si>
+  <si>
     <t>2,25%</t>
   </si>
   <si>
-    <t>3,17%</t>
+    <t>1,58%</t>
   </si>
   <si>
     <t>97,64%</t>
   </si>
   <si>
+    <t>95,9%</t>
+  </si>
+  <si>
     <t>98,7%</t>
   </si>
   <si>
     <t>97,86%</t>
   </si>
   <si>
+    <t>96,68%</t>
+  </si>
+  <si>
     <t>97,75%</t>
   </si>
   <si>
-    <t>96,83%</t>
+    <t>98,42%</t>
   </si>
   <si>
     <t>2,3%</t>
@@ -794,40 +758,52 @@
     <t>1,81%</t>
   </si>
   <si>
+    <t>2,97%</t>
+  </si>
+  <si>
     <t>5,75%</t>
   </si>
   <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
   </si>
   <si>
     <t>4,13%</t>
   </si>
   <si>
-    <t>10,45%</t>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
   </si>
   <si>
     <t>97,7%</t>
   </si>
   <si>
+    <t>97,03%</t>
+  </si>
+  <si>
     <t>98,19%</t>
   </si>
   <si>
     <t>94,25%</t>
   </si>
   <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
   </si>
   <si>
     <t>95,87%</t>
   </si>
   <si>
-    <t>89,55%</t>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
   </si>
 </sst>
 </file>
@@ -1239,7 +1215,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD58CCC-0DFC-4A44-9627-82C35C2D9765}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{789EC018-28A3-48ED-807F-D7166304CCC8}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1551,10 +1527,10 @@
         <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1566,16 +1542,16 @@
         <v>1642</v>
       </c>
       <c r="D8" s="7">
-        <v>1684844</v>
+        <v>1684843</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>1543</v>
@@ -1584,13 +1560,13 @@
         <v>1576680</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>3185</v>
@@ -1599,13 +1575,13 @@
         <v>3261524</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1617,7 +1593,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693413</v>
+        <v>1693412</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1661,7 +1637,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1673,13 +1649,13 @@
         <v>909</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -1688,13 +1664,13 @@
         <v>6405</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -1703,13 +1679,13 @@
         <v>7314</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1724,13 +1700,13 @@
         <v>550499</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H11" s="7">
         <v>446</v>
@@ -1739,13 +1715,13 @@
         <v>470007</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="M11" s="7">
         <v>972</v>
@@ -1754,13 +1730,13 @@
         <v>1020506</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1828,13 +1804,13 @@
         <v>29741</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H13" s="7">
         <v>37</v>
@@ -1843,13 +1819,13 @@
         <v>37457</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="M13" s="7">
         <v>65</v>
@@ -1858,13 +1834,13 @@
         <v>67198</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1876,16 +1852,16 @@
         <v>3186</v>
       </c>
       <c r="D14" s="7">
-        <v>3246802</v>
+        <v>3246803</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H14" s="7">
         <v>3260</v>
@@ -1894,28 +1870,28 @@
         <v>3341741</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="M14" s="7">
         <v>6446</v>
       </c>
       <c r="N14" s="7">
-        <v>6588543</v>
+        <v>6588542</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1927,7 +1903,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1957,7 +1933,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1971,7 +1947,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1990,7 +1966,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65213EF3-282F-4AEB-835B-405931C78E41}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC7C6429-ACAC-451D-B894-5F57CAB04263}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2007,7 +1983,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2114,13 +2090,13 @@
         <v>32739</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="H4" s="7">
         <v>35</v>
@@ -2129,13 +2105,13 @@
         <v>39116</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="M4" s="7">
         <v>63</v>
@@ -2144,13 +2120,13 @@
         <v>71856</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2165,13 +2141,13 @@
         <v>941904</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="H5" s="7">
         <v>1212</v>
@@ -2180,13 +2156,13 @@
         <v>1298680</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="M5" s="7">
         <v>2092</v>
@@ -2195,13 +2171,13 @@
         <v>2240584</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2269,13 +2245,13 @@
         <v>24434</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="H7" s="7">
         <v>27</v>
@@ -2284,13 +2260,13 @@
         <v>27231</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="M7" s="7">
         <v>49</v>
@@ -2299,13 +2275,13 @@
         <v>51666</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2320,13 +2296,13 @@
         <v>1939523</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>115</v>
+        <v>29</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="H8" s="7">
         <v>1608</v>
@@ -2335,13 +2311,13 @@
         <v>1730572</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="M8" s="7">
         <v>3442</v>
@@ -2350,13 +2326,13 @@
         <v>3670094</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2412,7 +2388,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2424,13 +2400,13 @@
         <v>6338</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -2442,10 +2418,10 @@
         <v>17</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -2454,13 +2430,13 @@
         <v>14205</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2475,13 +2451,13 @@
         <v>474843</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="H11" s="7">
         <v>405</v>
@@ -2493,10 +2469,10 @@
         <v>27</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="M11" s="7">
         <v>838</v>
@@ -2505,13 +2481,13 @@
         <v>925607</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2579,13 +2555,13 @@
         <v>63511</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="H13" s="7">
         <v>69</v>
@@ -2594,13 +2570,13 @@
         <v>74215</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="M13" s="7">
         <v>124</v>
@@ -2609,13 +2585,13 @@
         <v>137726</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>145</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2630,13 +2606,13 @@
         <v>3356271</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="H14" s="7">
         <v>3225</v>
@@ -2645,13 +2621,13 @@
         <v>3480015</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="M14" s="7">
         <v>6372</v>
@@ -2660,13 +2636,13 @@
         <v>6836286</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>151</v>
+        <v>28</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2722,7 +2698,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2741,7 +2717,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE9D2E82-91FF-459A-ABC3-491D7AE11B41}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA9C70AC-B0C8-4ED5-8F2F-8CD48DBB298E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2758,7 +2734,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2865,13 +2841,13 @@
         <v>13894</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>34</v>
+        <v>142</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="H4" s="7">
         <v>22</v>
@@ -2880,13 +2856,13 @@
         <v>23730</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>156</v>
+        <v>19</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="M4" s="7">
         <v>36</v>
@@ -2895,13 +2871,13 @@
         <v>37623</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2916,13 +2892,13 @@
         <v>740453</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c r="H5" s="7">
         <v>870</v>
@@ -2931,13 +2907,13 @@
         <v>970930</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>164</v>
+        <v>28</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="M5" s="7">
         <v>1618</v>
@@ -2946,13 +2922,13 @@
         <v>1711384</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3020,13 +2996,13 @@
         <v>16024</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>170</v>
+        <v>71</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="H7" s="7">
         <v>24</v>
@@ -3035,13 +3011,13 @@
         <v>27651</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>174</v>
+        <v>85</v>
       </c>
       <c r="M7" s="7">
         <v>38</v>
@@ -3050,13 +3026,13 @@
         <v>43675</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>34</v>
+        <v>157</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>128</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3071,13 +3047,13 @@
         <v>2060361</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>176</v>
+        <v>78</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="H8" s="7">
         <v>1884</v>
@@ -3086,13 +3062,13 @@
         <v>1960649</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>179</v>
+        <v>95</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="M8" s="7">
         <v>3822</v>
@@ -3101,13 +3077,13 @@
         <v>4021010</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>42</v>
+        <v>163</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3163,7 +3139,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3175,13 +3151,13 @@
         <v>1984</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>183</v>
+        <v>66</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -3190,13 +3166,13 @@
         <v>5006</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -3205,13 +3181,13 @@
         <v>6990</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3226,13 +3202,13 @@
         <v>544902</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>188</v>
+        <v>72</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H11" s="7">
         <v>521</v>
@@ -3241,13 +3217,13 @@
         <v>544134</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="M11" s="7">
         <v>1020</v>
@@ -3256,13 +3232,13 @@
         <v>1089036</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3330,13 +3306,13 @@
         <v>31901</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="H13" s="7">
         <v>51</v>
@@ -3345,13 +3321,13 @@
         <v>56387</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>37</v>
+        <v>180</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="M13" s="7">
         <v>81</v>
@@ -3360,13 +3336,13 @@
         <v>88288</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3381,13 +3357,13 @@
         <v>3345717</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="H14" s="7">
         <v>3275</v>
@@ -3396,13 +3372,13 @@
         <v>3475713</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>45</v>
+        <v>188</v>
       </c>
       <c r="M14" s="7">
         <v>6460</v>
@@ -3411,13 +3387,13 @@
         <v>6821430</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>85</v>
+        <v>174</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3473,7 +3449,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -3492,7 +3468,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C595F03D-C187-4364-957C-C2954433872A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D2165A7-4CA7-4558-BE98-28FD3526478B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3509,7 +3485,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3616,13 +3592,13 @@
         <v>21525</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="H4" s="7">
         <v>60</v>
@@ -3631,13 +3607,13 @@
         <v>33560</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="M4" s="7">
         <v>86</v>
@@ -3646,13 +3622,13 @@
         <v>55085</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3667,13 +3643,13 @@
         <v>520109</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="H5" s="7">
         <v>1367</v>
@@ -3682,13 +3658,13 @@
         <v>802393</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="M5" s="7">
         <v>2032</v>
@@ -3697,13 +3673,13 @@
         <v>1322501</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3771,13 +3747,13 @@
         <v>40253</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>224</v>
+        <v>132</v>
       </c>
       <c r="H7" s="7">
         <v>78</v>
@@ -3786,13 +3762,13 @@
         <v>169663</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="M7" s="7">
         <v>120</v>
@@ -3801,13 +3777,13 @@
         <v>209917</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3822,28 +3798,28 @@
         <v>2121769</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>231</v>
+        <v>137</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="H8" s="7">
         <v>2843</v>
       </c>
       <c r="I8" s="7">
-        <v>2079858</v>
+        <v>2079857</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="M8" s="7">
         <v>4793</v>
@@ -3852,13 +3828,13 @@
         <v>4201626</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3885,7 +3861,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249521</v>
+        <v>2249520</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3914,7 +3890,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3926,13 +3902,13 @@
         <v>15899</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
@@ -3941,13 +3917,13 @@
         <v>15309</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>71</v>
+        <v>178</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>89</v>
+        <v>227</v>
       </c>
       <c r="M10" s="7">
         <v>37</v>
@@ -3956,13 +3932,13 @@
         <v>31208</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>197</v>
+        <v>229</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>243</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3977,13 +3953,13 @@
         <v>657140</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="H11" s="7">
         <v>982</v>
@@ -3992,13 +3968,13 @@
         <v>698577</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>98</v>
+        <v>234</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="M11" s="7">
         <v>1648</v>
@@ -4007,13 +3983,13 @@
         <v>1355718</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>248</v>
+        <v>208</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>203</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4081,13 +4057,13 @@
         <v>77678</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>161</v>
+        <v>239</v>
       </c>
       <c r="H13" s="7">
         <v>160</v>
@@ -4096,13 +4072,13 @@
         <v>218532</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="M13" s="7">
         <v>243</v>
@@ -4111,13 +4087,13 @@
         <v>296210</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4129,16 +4105,16 @@
         <v>3281</v>
       </c>
       <c r="D14" s="7">
-        <v>3299016</v>
+        <v>3299017</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>168</v>
+        <v>247</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="H14" s="7">
         <v>5192</v>
@@ -4147,28 +4123,28 @@
         <v>3580828</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="M14" s="7">
         <v>8473</v>
       </c>
       <c r="N14" s="7">
-        <v>6879844</v>
+        <v>6879845</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4180,7 +4156,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376694</v>
+        <v>3376695</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4210,7 +4186,7 @@
         <v>8716</v>
       </c>
       <c r="N15" s="7">
-        <v>7176054</v>
+        <v>7176055</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4224,7 +4200,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P2A_psíq_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P2A_psíq_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EFEAFC2-9931-4CFB-BBAF-E68C0A3D71DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CE74343-2C86-4C14-A2BF-9137260B4830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{535B799E-1EB1-4C18-BCC0-348E08F0905B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{55C4F960-9FBD-417F-BA13-ABE7EAC300E1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -83,727 +83,727 @@
     <t>3,05%</t>
   </si>
   <si>
-    <t>1,53%</t>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
   </si>
   <si>
     <t>0,91%</t>
   </si>
   <si>
-    <t>2,28%</t>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con limitación, discapacidad psíquica en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
   </si>
   <si>
     <t>1,72%</t>
   </si>
   <si>
-    <t>1,24%</t>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
   </si>
   <si>
     <t>2,39%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
   </si>
   <si>
     <t>97,61%</t>
   </si>
   <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con limitación, discapacidad psíquica en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con limitación, discapacidad psíquica en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>59,92%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
   </si>
   <si>
     <t>1,42%</t>
   </si>
   <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
   </si>
   <si>
     <t>98,58%</t>
   </si>
   <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen personas con limitación, discapacidad psíquica en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen personas con limitación, discapacidad psíquica en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen personas con limitación, discapacidad psíquica en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
   </si>
   <si>
     <t>1,58%</t>
   </si>
   <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
   </si>
   <si>
     <t>98,42%</t>
   </si>
   <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
   </si>
 </sst>
 </file>
@@ -1215,7 +1215,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{789EC018-28A3-48ED-807F-D7166304CCC8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E71AB3C9-6D58-4BB4-B175-EC3795765763}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1348,10 +1348,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I4" s="7">
-        <v>20059</v>
+        <v>21125</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1363,25 +1363,25 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N4" s="7">
-        <v>40322</v>
+        <v>41388</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>1018</v>
@@ -1390,43 +1390,43 @@
         <v>1011460</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>1270</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1293988</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="7">
-        <v>1271</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1295054</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>2288</v>
+      </c>
+      <c r="N5" s="7">
+        <v>2305447</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="7">
-        <v>2289</v>
-      </c>
-      <c r="N5" s="7">
-        <v>2306514</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1441,13 +1441,13 @@
         <v>1031723</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>1291</v>
@@ -1456,33 +1456,33 @@
         <v>1315113</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>2329</v>
       </c>
       <c r="N6" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1494,13 +1494,13 @@
         <v>8569</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -1509,13 +1509,13 @@
         <v>10993</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
@@ -1524,34 +1524,34 @@
         <v>19562</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>1642</v>
       </c>
       <c r="D8" s="7">
-        <v>1684843</v>
+        <v>1684844</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="H8" s="7">
         <v>1543</v>
@@ -1560,13 +1560,13 @@
         <v>1576680</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="M8" s="7">
         <v>3185</v>
@@ -1575,13 +1575,13 @@
         <v>3261524</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1593,16 +1593,16 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>1554</v>
@@ -1611,13 +1611,13 @@
         <v>1587673</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>3203</v>
@@ -1626,18 +1626,18 @@
         <v>3281086</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1649,49 +1649,49 @@
         <v>909</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>7</v>
+      </c>
+      <c r="I10" s="7">
+        <v>7358</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="7">
-        <v>6</v>
-      </c>
-      <c r="I10" s="7">
-        <v>6405</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>8</v>
+      </c>
+      <c r="N10" s="7">
+        <v>8267</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="M10" s="7">
-        <v>7</v>
-      </c>
-      <c r="N10" s="7">
-        <v>7314</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="P10" s="7" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>526</v>
@@ -1700,43 +1700,43 @@
         <v>550499</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="7">
+        <v>445</v>
+      </c>
+      <c r="I11" s="7">
+        <v>469054</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="7">
-        <v>446</v>
-      </c>
-      <c r="I11" s="7">
-        <v>470007</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>971</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1019553</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M11" s="7">
-        <v>972</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1020506</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="P11" s="7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1751,13 +1751,13 @@
         <v>551408</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>452</v>
@@ -1766,13 +1766,13 @@
         <v>476412</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>979</v>
@@ -1781,13 +1781,13 @@
         <v>1027820</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1804,94 +1804,94 @@
         <v>29741</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" s="7">
+        <v>39</v>
+      </c>
+      <c r="I13" s="7">
+        <v>39476</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="H13" s="7">
-        <v>37</v>
-      </c>
-      <c r="I13" s="7">
-        <v>37457</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="M13" s="7">
         <v>67</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="N13" s="7">
+        <v>69216</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M13" s="7">
-        <v>65</v>
-      </c>
-      <c r="N13" s="7">
-        <v>67198</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>3186</v>
       </c>
       <c r="D14" s="7">
-        <v>3246803</v>
+        <v>3246802</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" s="7">
+        <v>3258</v>
+      </c>
+      <c r="I14" s="7">
+        <v>3339721</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="H14" s="7">
-        <v>3260</v>
-      </c>
-      <c r="I14" s="7">
-        <v>3341741</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>6444</v>
+      </c>
+      <c r="N14" s="7">
+        <v>6586525</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="M14" s="7">
-        <v>6446</v>
-      </c>
-      <c r="N14" s="7">
-        <v>6588542</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1903,51 +1903,51 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>3297</v>
       </c>
       <c r="I15" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1966,7 +1966,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC7C6429-ACAC-451D-B894-5F57CAB04263}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A61081DA-5DA7-48C4-ADDB-3AB2C1A7FF29}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1983,7 +1983,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2090,13 +2090,13 @@
         <v>32739</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H4" s="7">
         <v>35</v>
@@ -2105,13 +2105,13 @@
         <v>39116</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M4" s="7">
         <v>63</v>
@@ -2120,19 +2120,19 @@
         <v>71856</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>880</v>
@@ -2141,28 +2141,28 @@
         <v>941904</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="H5" s="7">
         <v>1212</v>
       </c>
       <c r="I5" s="7">
-        <v>1298680</v>
+        <v>1298681</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M5" s="7">
         <v>2092</v>
@@ -2171,13 +2171,13 @@
         <v>2240584</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2192,28 +2192,28 @@
         <v>974643</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>1247</v>
       </c>
       <c r="I6" s="7">
-        <v>1337796</v>
+        <v>1337797</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>2155</v>
@@ -2222,18 +2222,18 @@
         <v>2312440</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2245,13 +2245,13 @@
         <v>24434</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H7" s="7">
         <v>27</v>
@@ -2260,13 +2260,13 @@
         <v>27231</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M7" s="7">
         <v>49</v>
@@ -2275,19 +2275,19 @@
         <v>51666</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>1834</v>
@@ -2296,7 +2296,7 @@
         <v>1939523</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>106</v>
@@ -2347,13 +2347,13 @@
         <v>1963957</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>1635</v>
@@ -2362,13 +2362,13 @@
         <v>1757803</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>3491</v>
@@ -2377,18 +2377,18 @@
         <v>3721760</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2415,13 +2415,13 @@
         <v>7867</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -2430,19 +2430,19 @@
         <v>14205</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>433</v>
@@ -2451,13 +2451,13 @@
         <v>474843</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H11" s="7">
         <v>405</v>
@@ -2466,28 +2466,28 @@
         <v>450764</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M11" s="7">
         <v>838</v>
       </c>
       <c r="N11" s="7">
-        <v>925607</v>
+        <v>925608</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2502,13 +2502,13 @@
         <v>481181</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>412</v>
@@ -2517,28 +2517,28 @@
         <v>458631</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>850</v>
       </c>
       <c r="N12" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2555,13 +2555,13 @@
         <v>63511</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H13" s="7">
         <v>69</v>
@@ -2570,13 +2570,13 @@
         <v>74215</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M13" s="7">
         <v>124</v>
@@ -2585,19 +2585,19 @@
         <v>137726</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>19</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>3147</v>
@@ -2606,10 +2606,10 @@
         <v>3356271</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>110</v>
@@ -2621,13 +2621,13 @@
         <v>3480015</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M14" s="7">
         <v>6372</v>
@@ -2636,13 +2636,13 @@
         <v>6836286</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2657,13 +2657,13 @@
         <v>3419782</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>3294</v>
@@ -2672,13 +2672,13 @@
         <v>3554230</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>6496</v>
@@ -2687,18 +2687,18 @@
         <v>6974012</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2717,7 +2717,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA9C70AC-B0C8-4ED5-8F2F-8CD48DBB298E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B119B48-ED58-4650-9BE5-5DC9B8EEE65D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2734,7 +2734,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2841,13 +2841,13 @@
         <v>13894</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="H4" s="7">
         <v>22</v>
@@ -2856,13 +2856,13 @@
         <v>23730</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>19</v>
+        <v>137</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>144</v>
+        <v>50</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M4" s="7">
         <v>36</v>
@@ -2871,19 +2871,19 @@
         <v>37623</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>144</v>
+        <v>50</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>748</v>
@@ -2895,10 +2895,10 @@
         <v>111</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H5" s="7">
         <v>870</v>
@@ -2907,13 +2907,13 @@
         <v>970930</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>151</v>
+        <v>57</v>
       </c>
       <c r="M5" s="7">
         <v>1618</v>
@@ -2922,13 +2922,13 @@
         <v>1711384</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>151</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2943,13 +2943,13 @@
         <v>754347</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>892</v>
@@ -2958,13 +2958,13 @@
         <v>994660</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>1654</v>
@@ -2973,18 +2973,18 @@
         <v>1749007</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2996,49 +2996,49 @@
         <v>16024</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>71</v>
+        <v>156</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="H7" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I7" s="7">
-        <v>27651</v>
+        <v>28553</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>103</v>
+        <v>159</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>85</v>
+        <v>161</v>
       </c>
       <c r="M7" s="7">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N7" s="7">
-        <v>43675</v>
+        <v>44576</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>1938</v>
@@ -3047,43 +3047,43 @@
         <v>2060361</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>78</v>
+        <v>163</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H8" s="7">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="I8" s="7">
-        <v>1960649</v>
+        <v>1959747</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>110</v>
+        <v>166</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>95</v>
+        <v>167</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="M8" s="7">
-        <v>3822</v>
+        <v>3821</v>
       </c>
       <c r="N8" s="7">
-        <v>4021010</v>
+        <v>4020109</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>165</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3098,13 +3098,13 @@
         <v>2076385</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>1908</v>
@@ -3113,13 +3113,13 @@
         <v>1988300</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>3860</v>
@@ -3128,18 +3128,18 @@
         <v>4064685</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3151,13 +3151,13 @@
         <v>1984</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -3166,13 +3166,13 @@
         <v>5006</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -3181,19 +3181,19 @@
         <v>6990</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
         <v>499</v>
@@ -3202,13 +3202,13 @@
         <v>544902</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H11" s="7">
         <v>521</v>
@@ -3217,28 +3217,28 @@
         <v>544134</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="M11" s="7">
         <v>1020</v>
       </c>
       <c r="N11" s="7">
-        <v>1089036</v>
+        <v>1089037</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3253,13 +3253,13 @@
         <v>546886</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>526</v>
@@ -3268,28 +3268,28 @@
         <v>549140</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>1027</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3306,49 +3306,49 @@
         <v>31901</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H13" s="7">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I13" s="7">
-        <v>56387</v>
+        <v>57288</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="M13" s="7">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N13" s="7">
-        <v>88288</v>
+        <v>89190</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>34</v>
+        <v>186</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>3185</v>
@@ -3357,43 +3357,43 @@
         <v>3345717</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="H14" s="7">
-        <v>3275</v>
+        <v>3274</v>
       </c>
       <c r="I14" s="7">
-        <v>3475713</v>
+        <v>3474812</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="M14" s="7">
-        <v>6460</v>
+        <v>6459</v>
       </c>
       <c r="N14" s="7">
-        <v>6821430</v>
+        <v>6820528</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>41</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3408,13 +3408,13 @@
         <v>3377618</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>3326</v>
@@ -3423,13 +3423,13 @@
         <v>3532100</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>6541</v>
@@ -3438,18 +3438,18 @@
         <v>6909718</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -3468,7 +3468,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D2165A7-4CA7-4558-BE98-28FD3526478B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{433C0EBB-AF82-4043-BE46-B5FBA8350E02}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3485,7 +3485,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3589,97 +3589,97 @@
         <v>26</v>
       </c>
       <c r="D4" s="7">
-        <v>21525</v>
+        <v>19705</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="H4" s="7">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I4" s="7">
-        <v>33560</v>
+        <v>29828</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>195</v>
+        <v>13</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="M4" s="7">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N4" s="7">
-        <v>55085</v>
+        <v>49533</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
         <v>665</v>
       </c>
       <c r="D5" s="7">
-        <v>520109</v>
+        <v>495233</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="H5" s="7">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="I5" s="7">
-        <v>802393</v>
+        <v>725680</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>205</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="N5" s="7">
-        <v>1322501</v>
+        <v>1220913</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3691,51 +3691,51 @@
         <v>691</v>
       </c>
       <c r="D6" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>1427</v>
       </c>
       <c r="I6" s="7">
-        <v>835953</v>
+        <v>755508</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>2118</v>
       </c>
       <c r="N6" s="7">
-        <v>1377586</v>
+        <v>1270446</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3744,97 +3744,97 @@
         <v>42</v>
       </c>
       <c r="D7" s="7">
-        <v>40253</v>
+        <v>39077</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>129</v>
+        <v>213</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>209</v>
+        <v>146</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>132</v>
+        <v>214</v>
       </c>
       <c r="H7" s="7">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I7" s="7">
-        <v>169663</v>
+        <v>258168</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>211</v>
+        <v>86</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M7" s="7">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N7" s="7">
-        <v>209917</v>
+        <v>297245</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
         <v>1950</v>
       </c>
       <c r="D8" s="7">
-        <v>2121769</v>
+        <v>2251250</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>135</v>
+        <v>220</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>137</v>
+        <v>221</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>216</v>
+        <v>152</v>
       </c>
       <c r="H8" s="7">
-        <v>2843</v>
+        <v>2844</v>
       </c>
       <c r="I8" s="7">
-        <v>2079857</v>
+        <v>1979655</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>219</v>
+        <v>96</v>
       </c>
       <c r="M8" s="7">
-        <v>4793</v>
+        <v>4794</v>
       </c>
       <c r="N8" s="7">
-        <v>4201626</v>
+        <v>4230905</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3846,150 +3846,150 @@
         <v>1992</v>
       </c>
       <c r="D9" s="7">
-        <v>2162022</v>
+        <v>2290327</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249520</v>
+        <v>2237823</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>4913</v>
       </c>
       <c r="N9" s="7">
-        <v>4411543</v>
+        <v>4528150</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" s="7">
-        <v>15899</v>
+        <v>14203</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>223</v>
+        <v>101</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>225</v>
+        <v>87</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
       </c>
       <c r="I10" s="7">
-        <v>15309</v>
+        <v>15007</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>178</v>
+        <v>229</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="M10" s="7">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N10" s="7">
-        <v>31208</v>
+        <v>29210</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>198</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D11" s="7">
-        <v>657140</v>
+        <v>632420</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>230</v>
+        <v>108</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>231</v>
+        <v>95</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H11" s="7">
         <v>982</v>
       </c>
       <c r="I11" s="7">
-        <v>698577</v>
+        <v>645456</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>184</v>
+        <v>237</v>
       </c>
       <c r="M11" s="7">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="N11" s="7">
-        <v>1355718</v>
+        <v>1277876</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4001,46 +4001,46 @@
         <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>1004</v>
       </c>
       <c r="I12" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>1685</v>
       </c>
       <c r="N12" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4051,100 +4051,100 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D13" s="7">
-        <v>77678</v>
+        <v>72985</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>237</v>
+        <v>161</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="H13" s="7">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I13" s="7">
-        <v>218532</v>
+        <v>303003</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="M13" s="7">
         <v>240</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="M13" s="7">
-        <v>243</v>
-      </c>
       <c r="N13" s="7">
-        <v>296210</v>
+        <v>375988</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>244</v>
+        <v>16</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>3281</v>
+        <v>3282</v>
       </c>
       <c r="D14" s="7">
-        <v>3299017</v>
+        <v>3378904</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>246</v>
+        <v>167</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H14" s="7">
-        <v>5192</v>
+        <v>5194</v>
       </c>
       <c r="I14" s="7">
-        <v>3580828</v>
+        <v>3350791</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M14" s="7">
-        <v>8473</v>
+        <v>8476</v>
       </c>
       <c r="N14" s="7">
-        <v>6879845</v>
+        <v>6729695</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>254</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4156,51 +4156,51 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376695</v>
+        <v>3451889</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>5352</v>
       </c>
       <c r="I15" s="7">
-        <v>3799360</v>
+        <v>3653794</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>8716</v>
       </c>
       <c r="N15" s="7">
-        <v>7176055</v>
+        <v>7105683</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
